--- a/demo/tablas_excel/CR/revocando_uno_a_uno/20_credenciales_describe.xlsx
+++ b/demo/tablas_excel/CR/revocando_uno_a_uno/20_credenciales_describe.xlsx
@@ -525,7 +525,7 @@
         <v>0.2795652173913044</v>
       </c>
       <c r="F3" t="n">
-        <v>57.77</v>
+        <v>2.888499999999999</v>
       </c>
       <c r="G3" t="n">
         <v>98.71826086956521</v>
@@ -556,7 +556,7 @@
         <v>0.02169451944416017</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5960215320495283</v>
+        <v>0.02980107660247645</v>
       </c>
       <c r="G4" t="n">
         <v>6.397958432300828</v>
@@ -587,7 +587,7 @@
         <v>0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>57.43</v>
+        <v>2.8715</v>
       </c>
       <c r="G5" t="n">
         <v>90.17</v>
@@ -618,7 +618,7 @@
         <v>0.27</v>
       </c>
       <c r="F6" t="n">
-        <v>57.48</v>
+        <v>2.874</v>
       </c>
       <c r="G6" t="n">
         <v>93.54000000000001</v>
@@ -649,7 +649,7 @@
         <v>0.2795652173913044</v>
       </c>
       <c r="F7" t="n">
-        <v>57.5</v>
+        <v>2.875</v>
       </c>
       <c r="G7" t="n">
         <v>98.71826086956524</v>
@@ -680,7 +680,7 @@
         <v>0.29</v>
       </c>
       <c r="F8" t="n">
-        <v>57.76999999999999</v>
+        <v>2.888499999999999</v>
       </c>
       <c r="G8" t="n">
         <v>100.32</v>
@@ -711,7 +711,7 @@
         <v>0.34</v>
       </c>
       <c r="F9" t="n">
-        <v>59.58</v>
+        <v>2.979</v>
       </c>
       <c r="G9" t="n">
         <v>114.39</v>
